--- a/vacatures.xlsx
+++ b/vacatures.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Bedrijfsnaam</t>
   </si>
@@ -28,15 +28,15 @@
     <t>Stad</t>
   </si>
   <si>
+    <t>Taal</t>
+  </si>
+  <si>
     <t>Jobtitel</t>
   </si>
   <si>
     <t>Jobomschrijving</t>
   </si>
   <si>
-    <t>Hardskill</t>
-  </si>
-  <si>
     <t>Vervolgactie</t>
   </si>
   <si>
@@ -46,83 +46,79 @@
     <t>Teamleader</t>
   </si>
   <si>
+    <t>Bartosz</t>
+  </si>
+  <si>
+    <t>Nieuw</t>
+  </si>
+  <si>
+    <t>AMSTERDAM</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Traineeship Agile Test Engineer bij Bartosz</t>
+  </si>
+  <si>
+    <t>Wij zijn per direct op zoek naar trainee agile test engineers om deel te nemen aan onze ‘Test engineer Traineeship'!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=traineeship-agile-test-engineer-bij-bartosz-bij-bartosz-amsterdam</t>
+  </si>
+  <si>
+    <t>Rijlabels</t>
+  </si>
+  <si>
+    <t>Aantal vacatures</t>
+  </si>
+  <si>
+    <t>Axual</t>
+  </si>
+  <si>
+    <t>Aantal van Bedrijfsnaam</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
     <t>DPA</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Nieuw</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
     <t>Nee</t>
   </si>
   <si>
+    <t>Het ConsultancyHuis</t>
+  </si>
+  <si>
+    <t>Eindtotaal</t>
+  </si>
+  <si>
+    <t>INDI</t>
+  </si>
+  <si>
+    <t>OPEN.satisfaction</t>
+  </si>
+  <si>
+    <t>Rivium Business Solutions</t>
+  </si>
+  <si>
+    <t>Streamit BV</t>
+  </si>
+  <si>
+    <t>Sysunite B.V.</t>
+  </si>
+  <si>
     <t>Thuisbezorgd.nl</t>
   </si>
   <si>
-    <t>Bartosz</t>
-  </si>
-  <si>
-    <t>UTRECHT</t>
-  </si>
-  <si>
     <t>Trifork</t>
   </si>
   <si>
-    <t>Het ConsultancyHuis</t>
-  </si>
-  <si>
-    <t>CGI</t>
-  </si>
-  <si>
-    <t>OPEN.satisfaction</t>
-  </si>
-  <si>
-    <t>Axual</t>
-  </si>
-  <si>
-    <t>Streamit BV</t>
-  </si>
-  <si>
-    <t>Rivium Business Solutions</t>
-  </si>
-  <si>
-    <t>INDI</t>
-  </si>
-  <si>
-    <t>Sysunite B.V.</t>
-  </si>
-  <si>
-    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-feedback-engineer-bij-bartosz-bij-bartosz-utrecht</t>
-  </si>
-  <si>
-    <t>Medior Feedback Engineer bij Bartosz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wij zijn per direct op zoek naar ervaren feedback engineers! Denk jij dat je een toekomstige Bartoszian bent?_x000D_
-</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>Rijlabels</t>
-  </si>
-  <si>
-    <t>Aantal vacatures</t>
-  </si>
-  <si>
-    <t>Aantal van Bedrijfsnaam</t>
-  </si>
-  <si>
-    <t>Eindtotaal</t>
-  </si>
-  <si>
-    <t>Taal</t>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -448,15 +444,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.86328125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.46484375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.19921875" style="3" customWidth="1"/>
@@ -470,16 +466,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -493,28 +489,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -556,15 +549,15 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -572,27 +565,27 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -600,13 +593,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -614,13 +607,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>18</v>
@@ -628,7 +621,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -636,7 +629,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -644,7 +637,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -652,7 +645,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -660,7 +653,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -668,7 +661,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -676,7 +669,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -684,7 +677,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>18</v>

--- a/vacatures.xlsx
+++ b/vacatures.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renier\PycharmProjects\untitled\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blad1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blad2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$B$1:$J$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$B$1:$J$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+  <si>
+    <t>Datum</t>
+  </si>
   <si>
     <t>Bedrijfsnaam</t>
   </si>
@@ -34,28 +35,286 @@
     <t>Jobtitel</t>
   </si>
   <si>
+    <t>LinkedIN</t>
+  </si>
+  <si>
+    <t>Teamleader</t>
+  </si>
+  <si>
     <t>Jobomschrijving</t>
   </si>
   <si>
-    <t>Vervolgactie</t>
-  </si>
-  <si>
-    <t>Linkedin</t>
-  </si>
-  <si>
-    <t>Teamleader</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>DPA</t>
+  </si>
+  <si>
+    <t>UTRECHT</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Medior Java (Full Stack) Developer bij DPA GEOS</t>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>Nieuw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben jij geïnteresseerd in de nieuwste technologieën en een gepassioneerde Java developer? </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-java-full-stack-developer-bij-dpa-geos</t>
+  </si>
+  <si>
+    <t>OPEN.satisfaction</t>
+  </si>
+  <si>
+    <t>AMERSFOORT</t>
+  </si>
+  <si>
+    <t>Stageopdracht: Rapportages in OPEN.platform bij OPEN.satisfaction</t>
+  </si>
+  <si>
+    <t>Heb je al wat Java ervaring en ben je op zoek naar een uitdagende en leerzame stage in een jong team? Kom je carrière een kick-start geven bij OPEN.satisfaction!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=stageopdracht-rapportages-in-openplatform-bij-opensatisfaction</t>
+  </si>
+  <si>
+    <t>Devoteam</t>
+  </si>
+  <si>
+    <t>DEN HAAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Java Developer bij Devoteam  </t>
+  </si>
+  <si>
+    <t>Wij zijn altijd op zoek naar mensen die gepassioneerd aan innovatieve added-value oplossingen willen werken, toegespitst op de wensen van onze klanten. _x000D_
+_x000D_
+Kom bij ons werken en wordt een #DigitalTransformaker!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-java-developer-bij-devoteam-</t>
+  </si>
+  <si>
+    <t>Alfresco ECM Consultant bij OPEN.satisfaction te Amersfoort</t>
+  </si>
+  <si>
+    <t>Is jouw passie om de prestaties van klanten te verbeteren door een beter gebruik van ongestructureerde informatie en ECM technologie? Kom dan werken bij OPEN.satisfaction!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=alfresco-ecm-consultant-bij-opensatisfaction-te-amersfoort</t>
+  </si>
+  <si>
+    <t>Het ConsultancyHuis</t>
+  </si>
+  <si>
+    <t>SCHIPHOL-RIJK</t>
+  </si>
+  <si>
+    <t>Senior Agile Test Engineer bij Het ConsultancyHuis</t>
+  </si>
+  <si>
+    <t>Als Senior Agile Test Engineer aan de slag bij dé topwerkgever en topdienstverlener van Nederland?</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-agile-test-engineer-bij-het-consultancyhuis-bij-het-consultancy</t>
+  </si>
+  <si>
+    <t>Tenuki B.V.</t>
+  </si>
+  <si>
+    <t>S-HERTOGENBOSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Software Developer | Delphi, C++, C#, Java, Firebird, SQL, Interbase </t>
+  </si>
+  <si>
+    <t>Heb je maximaal 2 twee jaar ervaring als software developer, ben je gedreven in je vak en altijd op zoek om jezelf te verbeteren? Wij zoeken professionals die meer verantwoordelijkheid willen en kunnen dragen in onze prominente projecten.</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=junior-software-developer--delphi-c-c-java-firebird-sql-interbase-bij-</t>
+  </si>
+  <si>
+    <t>Dexels</t>
+  </si>
+  <si>
+    <t>AMSTERDAM</t>
+  </si>
+  <si>
+    <t>Senior Mobile Developer in Amsterdam | IOT, Android, iOS, iPhone SDK</t>
+  </si>
+  <si>
+    <t>Voor ons mobile ontwikkelteam zijn we op zoek naar een senior ontwikkelaar die kennis en kunde heeft van zowel Android, iOS als iPhone SDK. Ben jij diegene?</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-mobile-developer-in-amsterdam--iot-android-ios-iphone-sdk-bij-d</t>
+  </si>
+  <si>
+    <t>Sysunite B.V.</t>
+  </si>
+  <si>
+    <t>DELFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Full Stack Ontwikkelaar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben jij diegene die ons jonge, hecht en creatieve team van software engineers komt versterken? </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=junior-full-stack-ontwikkelaar-bij-sysunite-bv</t>
   </si>
   <si>
     <t>Bartosz</t>
   </si>
   <si>
-    <t>Nieuw</t>
-  </si>
-  <si>
-    <t>AMSTERDAM</t>
-  </si>
-  <si>
-    <t>NL</t>
+    <t>EINDHOVEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startende Agile Test Engineer bij Bartosz </t>
+  </si>
+  <si>
+    <t>Wij zijn per direct op zoek naar startenede agile test engineers om deel te nemen aan onze ‘Test engineer Traineeship'!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=startende-agile-test-engineer-bij-bartosz-bij-bartosz-eindhoven</t>
+  </si>
+  <si>
+    <t>Hogeschool van Amsterdam</t>
+  </si>
+  <si>
+    <t>Docent Software Engineering (Java) bij de Hogeschool van Amsterdam</t>
+  </si>
+  <si>
+    <t>Wil jij jouw kennis overdragen op de nieuwe generatie? De Hogeschool van Amsterdam (HvA) is voor de ICT-opleidingen op zoek naar een Docent Software Engineering!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=docent-software-engineering-java-bij-de-hogeschool-van-amsterdam</t>
+  </si>
+  <si>
+    <t>Medior Feedback Engineer | Exploratory Testing, Context Driven Testing, BDD, SbE, TDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wij zijn per direct op zoek naar ervaren feedback engineers! Denk jij dat je een toekomstige Bartoszian bent?_x000D_
+</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-feedback-engineer--exploratory-testing-context-driven-testing-b-2</t>
+  </si>
+  <si>
+    <t>Senior Java Developer in Amsterdam | IOT, Java, Ruby, C, SOA, SAAS</t>
+  </si>
+  <si>
+    <t>Ben je op zoek naar een uitdagende functie die je intellectuele capaciteiten stimuleert en je de ruimte geeft verder te ontwikkelen als ontwikkelaar? Zou je graag willen werken in een academische omgeving nabij het water van Amsterdam? Wil je ook graag werken voor een bedrijf dat gepassioneerd werd aan hun eigen op Java gebaseerde producten? Dan wil Dexels graag met je in contact komen!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-java-developer-in-amsterdam--iot-java-ruby-c-soa-saas-bij-dexel</t>
+  </si>
+  <si>
+    <t>Sofico</t>
+  </si>
+  <si>
+    <t>HOUTEN</t>
+  </si>
+  <si>
+    <t>Medior Java/Web Developer bij Sofico</t>
+  </si>
+  <si>
+    <t>Vind je het leuk om als Java/Web developer voor de automotive-sector te werken? Kom dan werken bij Sofico!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-javaweb-developer-bij-sofico-bij-sofico</t>
+  </si>
+  <si>
+    <t>De Goudse</t>
+  </si>
+  <si>
+    <t>GOUDA</t>
+  </si>
+  <si>
+    <t>Je gaat werken bij een van de Mendix-teams van de Goudse ICT. Het team werkt volgens Agile/Scrum en is verantwoordelijk voor zowel de (door)ontwikkeling van applicaties als het beheer van de bestaande applicaties (DevOps). Mendix wordt ingezet voor het ontwikkelen van maatwerk applicaties. Daarbij worden proces ondersteunende applicaties gemaakt voor de eigen interne medewerkers en (web) applicaties voor de buitenwereld : werkgevers, werknemers, adviseurs, volmachten en consumenten.</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=junior-mendix-developer-bij-de-goudse</t>
+  </si>
+  <si>
+    <t>Bgenius</t>
+  </si>
+  <si>
+    <t>GRONINGEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wil jij werken aan de beste Online Marketing Software die er bestaat? Help jij ons om deze nog beter te maken? </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=software-developer-bij-bgenius-in-groningen</t>
+  </si>
+  <si>
+    <t>Medior Testanalist bij Bartosz</t>
+  </si>
+  <si>
+    <t>Ben jij een ambitieuze consultant met passie voor het testvak? Houd je van afwisseling en uitdaging in opdrachten bij toonaangevende organisaties? En durf jij uit je comfortzone te komen? Kom dan werken bij Bartosz als Testanalist!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-testanalist-bij-bartosz-bij-bartosz-utrecht</t>
+  </si>
+  <si>
+    <t>Medior Embedded Developer bij Dexels</t>
+  </si>
+  <si>
+    <t>Wil jij graag een embedded ontwikkeltak opzetten? Kom werken bij Dexels!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-embedded-developer-bij-dexels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Agile Test Specialist bij Bartosz </t>
+  </si>
+  <si>
+    <t>Heb jij 'hard skills with a soft touch'? Wij zijn per direct op zoek naar agile test specialisten!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=junior-agile-test-specialist-bij-bartosz-bij-bartosz-amsterdam</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGI </t>
+  </si>
+  <si>
+    <t>Ben jij de ervaren software developer die graag regionaal wil werken aan landelijke en internationale innovatieve oplossingen?</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-software-engineer-bij-cgi</t>
+  </si>
+  <si>
+    <t>Volant Groep</t>
+  </si>
+  <si>
+    <t>Junior Java developer bij de Volant Groep</t>
+  </si>
+  <si>
+    <t>Als Junior Java-developer kun je overal aan de slag. Zou jij het liefst werken aan projecten met een publiek en maatschappelijk belang? En voel je je thuis in en ver doorontwikkelde Scrum-omgeving waar je met je team zelfstandig projecten op kunt pakken? Dan heeft Volant Groep precies de baan die bij jou past.</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=junior-java-developer-bij-de-volant-groep</t>
+  </si>
+  <si>
+    <t>Senior Mobile Developer bij DPA GEOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben jij geïnteresseerd in de nieuwste technologieën en een gepassioneerde Mobile developer? </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-mobile-developer-bij-dpa-geos-bij-dpa-geos</t>
   </si>
   <si>
     <t>Traineeship Agile Test Engineer bij Bartosz</t>
@@ -64,7 +323,37 @@
     <t>Wij zijn per direct op zoek naar trainee agile test engineers om deel te nemen aan onze ‘Test engineer Traineeship'!</t>
   </si>
   <si>
-    <t>https://www.jouwictvacature.nl/solliciteren?job=traineeship-agile-test-engineer-bij-bartosz-bij-bartosz-amsterdam</t>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=traineeship-agile-test-engineer-bij-bartosz-bij-bartosz-utrecht</t>
+  </si>
+  <si>
+    <t>Trifork</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Senior Backend Software Engineer | Java, .NET, Groovy, Python, Mongo, Docker</t>
+  </si>
+  <si>
+    <t>Are you a Senior Backend Software Engineer and do you want to work at the most innovative technology agency in The Netherlands? Come work at Trifork!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-backend-software-engineer--java-net-groovy-python-mongo-docker-</t>
+  </si>
+  <si>
+    <t>Senior Agile Test Specialist bij Bartosz</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-agile-test-specialist-bij-bartosz-bij-bartosz-amsterdam</t>
+  </si>
+  <si>
+    <t>Medior Backend Java  Developer | Hibernate, JPA, Spring MVC, Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben jij een gepassioneerde Java backend developer? </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-java-developer--hibernate-jpa-spring-mvc-oracle-bij-dpa-geos</t>
   </si>
   <si>
     <t>Rijlabels</t>
@@ -79,64 +368,43 @@
     <t>Aantal van Bedrijfsnaam</t>
   </si>
   <si>
-    <t>CGI</t>
-  </si>
-  <si>
     <t>Ja</t>
   </si>
   <si>
-    <t>DPA</t>
-  </si>
-  <si>
-    <t>Nee</t>
-  </si>
-  <si>
-    <t>Het ConsultancyHuis</t>
-  </si>
-  <si>
     <t>Eindtotaal</t>
   </si>
   <si>
     <t>INDI</t>
   </si>
   <si>
-    <t>OPEN.satisfaction</t>
-  </si>
-  <si>
     <t>Rivium Business Solutions</t>
   </si>
   <si>
     <t>Streamit BV</t>
   </si>
   <si>
-    <t>Sysunite B.V.</t>
-  </si>
-  <si>
     <t>Thuisbezorgd.nl</t>
-  </si>
-  <si>
-    <t>Trifork</t>
-  </si>
-  <si>
-    <t>URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,29 +420,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="1" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standaard" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -440,26 +703,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="102" zoomScaleNormal="226">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" style="3" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="17.53125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="12.796875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="3" width="4"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="3" width="55.59765625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="3" width="7.796875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="3" width="10.19921875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="3" width="76"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="3" width="78.19921875"/>
+    <col customWidth="1" max="10" min="10" style="3" width="12.19921875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -475,215 +745,853 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" t="s">
         <v>9</v>
       </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <autoFilter ref="B1:J1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:S16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="73.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.06640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="54.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="63.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="21.1328125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="14.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="5.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="3" width="9.6640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="3" width="20.6640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="3" width="5.33203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="3" width="9"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="3" width="10.796875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="3" width="9"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="3" width="38.46484375"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="3" width="38.9296875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="3" width="53.1328125"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="3" width="73.53125"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="3" width="31.3984375"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="3" width="43.06640625"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" style="3" width="54.19921875"/>
+    <col bestFit="1" customWidth="1" max="17" min="17" style="3" width="50.19921875"/>
+    <col bestFit="1" customWidth="1" max="18" min="18" style="3" width="63.3984375"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="3" width="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/vacatures.xlsx
+++ b/vacatures.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renier\PycharmProjects\untitled\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blad1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blad2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$B$1:$J$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$B$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$B$1:$J$26</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="121">
   <si>
     <t>Datum</t>
   </si>
@@ -389,22 +394,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -420,24 +425,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="1" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Standaard" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -703,32 +717,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="102" zoomScaleNormal="226">
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="10.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="17.53125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="12.796875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="3" width="4"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="3" width="55.59765625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="3" width="7.796875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="3" width="10.19921875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="3" width="76"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="3" width="78.19921875"/>
-    <col customWidth="1" max="10" min="10" style="3" width="12.19921875"/>
+    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="76" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -757,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -783,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -809,7 +819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>22</v>
       </c>
@@ -835,7 +845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -861,7 +871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -887,7 +897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -913,7 +923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -939,7 +949,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -965,7 +975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -991,7 +1001,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>55</v>
       </c>
@@ -1017,7 +1027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -1043,7 +1053,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>40</v>
       </c>
@@ -1069,7 +1079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -1095,7 +1105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>70</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>74</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>50</v>
       </c>
@@ -1173,7 +1183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>50</v>
       </c>
@@ -1225,7 +1235,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>87</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>91</v>
       </c>
@@ -1277,7 +1287,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>50</v>
       </c>
@@ -1329,7 +1339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>101</v>
       </c>
@@ -1355,8 +1365,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
         <v>43120</v>
       </c>
       <c r="B25" t="s">
@@ -1384,8 +1394,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
         <v>43120</v>
       </c>
       <c r="B26" t="s">
@@ -1414,48 +1424,44 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <autoFilter ref="B1:J26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A3:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="21.1328125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="14.33203125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="5.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="3" width="9.6640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="3" width="20.6640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="3" width="5.33203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="3" width="9"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="3" width="10.796875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="3" width="9"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="3" width="38.46484375"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="3" width="38.9296875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="3" width="53.1328125"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="3" width="73.53125"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="3" width="31.3984375"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="3" width="43.06640625"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" style="3" width="54.19921875"/>
-    <col bestFit="1" customWidth="1" max="17" min="17" style="3" width="50.19921875"/>
-    <col bestFit="1" customWidth="1" max="18" min="18" style="3" width="63.3984375"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="3" width="9"/>
+    <col min="1" max="1" width="21.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="73.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="54.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -1463,19 +1469,19 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1485,113 +1491,113 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vacatures.xlsx
+++ b/vacatures.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renier\PycharmProjects\untitled\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="3" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blad1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blad2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$K$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>Datum</t>
   </si>
@@ -55,7 +58,375 @@
     <t>URL</t>
   </si>
   <si>
+    <t>Volant Groep</t>
+  </si>
+  <si>
+    <t>UTRECHT</t>
+  </si>
+  <si>
+    <t>Renier</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Medior Software Tester bij Volant Groep in Gouda</t>
+  </si>
+  <si>
     <t>Nee</t>
+  </si>
+  <si>
+    <t>Nieuw</t>
+  </si>
+  <si>
+    <t>Als Medior Software Tester een bijdrage leveren aan onze oplossingen voor de lokale overheid?</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-software-tester-bij-volant-groep-in-gouda-bij-volant-groep</t>
+  </si>
+  <si>
+    <t>DPA</t>
+  </si>
+  <si>
+    <t>Bram</t>
+  </si>
+  <si>
+    <t>Senior Mobile Developer | iOs, Android, PhoneGap, Objective-C, Java, Swift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben jij geïnteresseerd in de nieuwste technologieën en een gepassioneerde Mobile developer? </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-mobile-developer--ios-android-phonegap-objective-c-java-swift-b</t>
+  </si>
+  <si>
+    <t>Bartosz</t>
+  </si>
+  <si>
+    <t>Medior Testanalist bij Bartosz</t>
+  </si>
+  <si>
+    <t>Ben jij een ambitieuze consultant met passie voor het testvak? Houd je van afwisseling en uitdaging in opdrachten bij toonaangevende organisaties? En durf jij uit je comfortzone te komen? Kom dan werken bij Bartosz als Testanalist!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-testanalist-bij-bartosz-bij-bartosz-utrecht</t>
+  </si>
+  <si>
+    <t>Senior Testanalist bij Bartosz</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-testanalist-bij-bartosz-bij-bartosz-utrecht</t>
+  </si>
+  <si>
+    <t>De Goudse</t>
+  </si>
+  <si>
+    <t>GOUDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je gaat werken bij een van de Mendix-teams van de Goudse ICT. Het team werkt volgens Agile/Scrum en is verantwoordelijk voor zowel de (door)ontwikkeling van applicaties als het beheer van de bestaande applicaties (DevOps). Mendix wordt ingezet voor het ontwikkelen van maatwerk applicaties. Daarbij worden proces ondersteunende applicaties gemaakt voor de eigen interne medewerkers en (web) applicaties voor de buitenwereld : werkgevers, werknemers, adviseurs, volmachten en consumenten._x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-mendix-ontwikkelaar-</t>
+  </si>
+  <si>
+    <t>Devoteam</t>
+  </si>
+  <si>
+    <t>DEN HAAG</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Solution Architect</t>
+  </si>
+  <si>
+    <t>Are you a motivated, self-driven and creative Solution Architect focused on value add outcomes? Please, keep on reading because Devoteam is the right company for you!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=solution-architect-2</t>
+  </si>
+  <si>
+    <t>EINDHOVEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medior Backend Java  Developer | Hibernate, JPA, Spring MVC, Oracle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben jij een gepassioneerde Java backend developer? </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-java-developer--hibernate-jpa-spring-mvc-oracle-bij-dpa-geos-3</t>
+  </si>
+  <si>
+    <t>ROTTERDAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medior Java Backend Developer bij DPA GEOS </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-java-backend-developer-bij-dpa-geos-bij-dpa-geos-2</t>
+  </si>
+  <si>
+    <t>Rivium Business Solutions</t>
+  </si>
+  <si>
+    <t>CAPELLE AAN DEN IJSSEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Java developer | Spring, Hibernate, GWT, Maven, Ant, Jboss, IBM WebSphere </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagelijks werken aan al je skills om de top in Java ontwikkeling te bereiken.  Sta aan de basis van technische vernieuwing en ontwikkel mee aan nieuwe ICT toepassingen. Je wordt een speler in een projectteam waar nieuwe technologieën toegepast worden om bedrijven een voorsprong in de markt te bezorgen.    </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=junior-java-developer--spring-hibernate-gwt-maven-ant-jboss-ibm-websph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Java Developer bij Devoteam  </t>
+  </si>
+  <si>
+    <t>Wij zijn altijd op zoek naar mensen die gepassioneerd aan innovatieve added-value oplossingen willen werken, toegespitst op de wensen van onze klanten. _x000D_
+_x000D_
+Kom bij ons werken en wordt een #DigitalTransformaker!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-java-developer-bij-devoteam-</t>
+  </si>
+  <si>
+    <t>Qualogy</t>
+  </si>
+  <si>
+    <t>RIJSWIJK (RIJSWIJK)</t>
+  </si>
+  <si>
+    <t>Medior Java Ontwikkelaar | Spring, Hibernate, Wicket, IoT</t>
+  </si>
+  <si>
+    <t>Consultant/ontwikkelaar met ervaring in JEE-omgevingen. Combineert een oprechte passie voor techniek met kennis van Java, XML en SOA. Kom bij Qualogy en bepaal mede onze strategische Java-richting.</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-java-ontwikkelaar--spring-hibernate-wicket-iot</t>
+  </si>
+  <si>
+    <t>AMSTERDAM</t>
+  </si>
+  <si>
+    <t>Medior Java (Full Stack) Developer | iOS, PhoneGap, Objective-C, Swift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben jij geïnteresseerd in de nieuwste technologieën en een gepassioneerde Java developer? </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-java-full-stack-developer--ios-phonegap-objective-c-swift-bij-d-2</t>
+  </si>
+  <si>
+    <t>ZWOLLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medior Testanalist bij Bartosz  </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-testanalist-bij-bartosz-bij-bartosz-zwolle</t>
+  </si>
+  <si>
+    <t>Dexels</t>
+  </si>
+  <si>
+    <t>Medior Embedded Developer bij Dexels</t>
+  </si>
+  <si>
+    <t>Wil jij graag een embedded ontwikkeltak opzetten? Kom werken bij Dexels!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-embedded-developer-bij-dexels</t>
+  </si>
+  <si>
+    <t>Meddex</t>
+  </si>
+  <si>
+    <t>Medior Test Engineer bij Meddex</t>
+  </si>
+  <si>
+    <t>Wil jij applicaties testen met groot maatschappelijk belang?</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-test-engineer-bij-meddex-bij-meddex</t>
+  </si>
+  <si>
+    <t>Infent</t>
+  </si>
+  <si>
+    <t>NIEUWEGEIN</t>
+  </si>
+  <si>
+    <t>Senior (4+ jaar) Developer bij Infent | Auto van de zaak!</t>
+  </si>
+  <si>
+    <t>Als enthousiaste .NET-developer werk je mee aan de uitbreiding van ons Infenture Innovation Platform. Het werk is zeer divers, waarbij je zelfstandig of in teamverband werkt, op interne projecten. Infent is een innovatief bedrijf waarbij gewerkt wordt met de nieuwste technologieën. Je vindt het leuk om je hierin te verdiepen en hiermee aan de slag te gaan. Daarnaast vind je het leuk om in het Infent .NET-team mee te denken over verbeteringen.</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-4-jaar-developer-bij-infent--auto-van-de-zaak</t>
+  </si>
+  <si>
+    <t>OPEN.satisfaction</t>
+  </si>
+  <si>
+    <t>AMERSFOORT</t>
+  </si>
+  <si>
+    <t>Alfresco ECM Consultant bij OPEN.satisfaction te Amersfoort</t>
+  </si>
+  <si>
+    <t>Is jouw passie om de prestaties van klanten te verbeteren door een beter gebruik van ongestructureerde informatie en ECM technologie? Kom dan werken bij OPEN.satisfaction!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=alfresco-ecm-consultant-bij-opensatisfaction-te-amersfoort</t>
+  </si>
+  <si>
+    <t>Avans Hogeschool</t>
+  </si>
+  <si>
+    <t>BREDA</t>
+  </si>
+  <si>
+    <t>U heeft een voorbeeldfunctie en inspireert studenten van de opleiding Informatica in Breda. Van softwareontwikkeling wordt u enthousiast. U heeft ervaring opgedaan in de rol van systeemontwikkelaar en u kijkt ernaar uit deze kennis over te brengen op studenten. Lesgeven gaat u goed af. Ook de rol van begeleider is u op het lijf geschreven. U begeleidt studenten bij projecten binnen de opleiding en bij hun stage- en afstudeeropdrachten in het bedrijfsleven. U vindt het fijn dat studenten een beroep op u doen en dat u ze van advies kunt voorzien. Uw hart gaat sneller slaan van nieuwe technologieën. Daar bent u dan ook continu naar op zoek. Op basis van deze nieuwe technologieën ontwikkelt u onderwijsmateriaal. Ook onderhoudt u contacten met bedrijven en externe deskundigen. Hiermee houdt u het onderwijs up-to-date.</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=docent-informatica-bij-avans-hogeschool</t>
+  </si>
+  <si>
+    <t>Advitrae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Web Developer (focus on front-end) </t>
+  </si>
+  <si>
+    <t>"Laten we dan gewoon een nieuwe planning en roosterapplicatie ontwikkelen". Deze zin spraken we ruim 9 jaar geleden uit toen we zagen dat onderwijsinstellingen onvoldoende uit de voeten konden met de bestaande applicaties. Inmiddels is Advitrae met Xedule marktleider in het MBO en HO.</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-web-developer-bij-advitrae</t>
+  </si>
+  <si>
+    <t>Bloemert</t>
+  </si>
+  <si>
+    <t>Wil jij werken aan complexe, innovatieve maatwerk projecten?  Wij werken voor gerenommeerde klanten en zijn qua projecten niet in één kader te plaatsen. Dit zorgt ervoor dat jouw baan afwisselend en altijd uitdagend is.</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior--senior-net-developer-op-projectbasis</t>
+  </si>
+  <si>
+    <t>Sogeti</t>
+  </si>
+  <si>
+    <t>Senior Microsoft SharePoint Specialist bij Sogeti in Eindhoven</t>
+  </si>
+  <si>
+    <t>Als Microsoft SharePoint Specialist zet jij jouw kennis van Microsoft SharePoint proactief in door te werken aan verschillende uitdagende projecten bij onze klanten. In de projecten werk je in een wisselend team samen met enthousiaste specialisten. Ondersteund door een ‘proven' projectaanpak en Sogeti's eigen kwaliteitssysteem worden projecten opgepakt en uitgevoerd.</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-microsoft-sharepoint-specialist-bij-sogeti</t>
+  </si>
+  <si>
+    <t>IT partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HENDRIK-IDO-AMBACHT </t>
+  </si>
+  <si>
+    <t>.NET Web Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIJZIG
+IT Partner BV is al ruim 17 jaar een zeer dynamisch IT bedrijf, met Rotterdamse mentaliteit, gevestigd te Hendrik-Ido-Ambacht. Wij ontwikkelen, verkopen en implementeren ons eigen ERP Software pakket en leveren daarnaast verscheidene consultancy diensten.
+Wij opereren zowel lokaal in Nederland als internationaal (Caribisch gebied, Verenigde Staten, Dubai, Suriname, Spanje, Zweden etc ) met zeer innovatieve software voor haven autoriteiten, container terminals, multi-cargo terminals, vracht agenten, expediteurs en andere logistieke bedrijven.
+Onze software oplossingen bieden uitstekende mogelijkheden om klant specifieke aanpassingen te realiseren. Met deze flexibiliteit zijn wij onderscheidend.
+</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=net-web-developer-bij-it-partner</t>
+  </si>
+  <si>
+    <t>Ecare</t>
+  </si>
+  <si>
+    <t>ENSCHEDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bij Ecare zijn we onder de collega’s altijd op zoek naar de juiste balans tussen talenten en mensen met de nodige ervaring. Heb jij passie voor het ontwikkelen van mooie ICT-oplossingen, en ben jij ook leergierig, klantgericht, daadkrachtig en positief ingesteld? Dan hebben wij de ideale baan voor jou! Het zou namelijk geweldig zijn als jij samen met onze collega’s in het ontwikkelteam verder bouwt aan innovatieve softwareoplossingen. </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=junior-software-engineer-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U heeft een voorbeeldfunctie en inspireert studenten van de opleiding Technische Informatica in Breda. Van softwareontwikkeling en coderen wordt u enthousiast. U heeft ervaring opgedaan in de rol van programmeursysteemontwikkelaar en u kijkt ernaar uit deze kennis over te brengen op studenten. Lesgeven gaat u goed af. Ook de rol van begeleider is u op het lijf geschreven. U begeleidt studenten bij projecten binnen de opleiding en bij hun stage- en afstudeeropdrachten in het bedrijfsleven. U vindt het fijn dat studenten een beroep op u doen en dat u ze van advies kunt voorzien. Uw hart gaat sneller slaan van nieuwe technologieën. Daar bent u dan ook continu naar op zoek. Op basis van deze nieuwe technologieën ontwikkelt u onderwijsmateriaal. Ook onderhoudt u contacten met bedrijven en externe deskundigen. Hiermee houdt u het onderwijs up-to-date. </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=docent-technische-informatica</t>
+  </si>
+  <si>
+    <t>AMSTERDAM ZUID OOST</t>
+  </si>
+  <si>
+    <t>.Net Architect bij Sogeti in Amsterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In de functie van .NET Engineer werk je zowel in de detachering als op projectbasis. Je werkgebied omvat heel Nederland. </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=net-lead-engineer-bij-sogeti-4</t>
+  </si>
+  <si>
+    <t>Marketgraph BV</t>
+  </si>
+  <si>
+    <t>Junior C#.NET Developer bij Marketgraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je werkt mee aan de verdere ontwikkeling van onze realtime 3D graphics engine en bijbehorende user interface en aansturing. Daarnaast werk je mee aan projecten voor klanten waarbij televisie en entertainment shows worden gebouwd en aangestuurd. Je werk zal dus door een miljoenenpubliek worden bekeken!
+</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=junior-cnet-developer-bij-marketgraph</t>
+  </si>
+  <si>
+    <t>Rovict</t>
+  </si>
+  <si>
+    <t>SOEST</t>
+  </si>
+  <si>
+    <t>Medior .NET Developer voor 32, 36 of 40 uur per week | .NET Core, C#, AngularJS, Entity</t>
+  </si>
+  <si>
+    <t>Ben je geïnteresseerd in technologie en onderwijs? Wil je graag software ontwikkelen voor onderwijsinstellingen én houd je ervan om dit gezamenlijk met je collega's op te pakken? Dan ben jij de ontwikkelaar die wij zoeken.
+Om de professionalisering van de organisatie verder vorm te geven willen wij in contact komen met kandidaten (m/v) voor de functie van .NET Developer</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-net-developer-voor-32-36-of-40-uur-per-week--net-core-c-angular</t>
+  </si>
+  <si>
+    <t>Paralax</t>
+  </si>
+  <si>
+    <t>MAARSEN</t>
+  </si>
+  <si>
+    <t>Principal C#, ASP.NET MVC bij Paralax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In de functie als technical lead ben je bezig met het ontwikkelen van nieuwe functionaliteiten. Hiernaast verbeter en onderhoud je de bestaande software. Naast al het ontwikkelwerk is het belangrijk dat je meedenkt aan nieuwe wensen van klanten (intern/extern) of nieuwe mogelijke ontwikkelingen. Ook staan we altijd open voor eigen inbreng. Je werkt samen met teamleden en multidisciplinaire teams binnen de ontwikkelstraat op projectmatige wijze.
+</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=principal-c-aspnet-mvc-bij-paralax</t>
   </si>
   <si>
     <t>Ja</t>
@@ -64,19 +435,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="yyyy\-mm\-dd" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,28 +467,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standaard" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -379,29 +748,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="102" zoomScaleNormal="226">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="78.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.19921875" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="2" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="17.53125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="20.86328125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13.86328125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="9"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="58.59765625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="10.1328125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="10.19921875"/>
+    <col customWidth="1" max="9" min="9" style="1" width="100.19921875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="78.19921875"/>
+    <col customWidth="1" max="11" min="11" style="1" width="12.19921875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -433,34 +806,966 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{627FFABF-2DB8-4577-A7EB-4A5345323617}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <autoFilter ref="A1:K19"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCD3AA4-E1F2-46DE-9877-A256C57D94CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/vacatures.xlsx
+++ b/vacatures.xlsx
@@ -10,23 +10,15 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blad2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$K$19</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$L$30</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$L$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>Datum</t>
   </si>
@@ -41,6 +33,9 @@
   </si>
   <si>
     <t>Taal</t>
+  </si>
+  <si>
+    <t>Ervaringsniveau</t>
   </si>
   <si>
     <t>Jobtitel</t>
@@ -344,10 +339,11 @@
     <t>.NET Web Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">WIJZIG
-IT Partner BV is al ruim 17 jaar een zeer dynamisch IT bedrijf, met Rotterdamse mentaliteit, gevestigd te Hendrik-Ido-Ambacht. Wij ontwikkelen, verkopen en implementeren ons eigen ERP Software pakket en leveren daarnaast verscheidene consultancy diensten.
-Wij opereren zowel lokaal in Nederland als internationaal (Caribisch gebied, Verenigde Staten, Dubai, Suriname, Spanje, Zweden etc ) met zeer innovatieve software voor haven autoriteiten, container terminals, multi-cargo terminals, vracht agenten, expediteurs en andere logistieke bedrijven.
-Onze software oplossingen bieden uitstekende mogelijkheden om klant specifieke aanpassingen te realiseren. Met deze flexibiliteit zijn wij onderscheidend.
+    <t xml:space="preserve">WIJZIG_x000D_
+_x000D_
+IT Partner BV is al ruim 17 jaar een zeer dynamisch IT bedrijf, met Rotterdamse mentaliteit, gevestigd te Hendrik-Ido-Ambacht. Wij ontwikkelen, verkopen en implementeren ons eigen ERP Software pakket en leveren daarnaast verscheidene consultancy diensten._x000D_
+Wij opereren zowel lokaal in Nederland als internationaal (Caribisch gebied, Verenigde Staten, Dubai, Suriname, Spanje, Zweden etc ) met zeer innovatieve software voor haven autoriteiten, container terminals, multi-cargo terminals, vracht agenten, expediteurs en andere logistieke bedrijven._x000D_
+Onze software oplossingen bieden uitstekende mogelijkheden om klant specifieke aanpassingen te realiseren. Met deze flexibiliteit zijn wij onderscheidend._x000D_
 </t>
   </si>
   <si>
@@ -390,7 +386,8 @@
     <t>Junior C#.NET Developer bij Marketgraph</t>
   </si>
   <si>
-    <t xml:space="preserve">Je werkt mee aan de verdere ontwikkeling van onze realtime 3D graphics engine en bijbehorende user interface en aansturing. Daarnaast werk je mee aan projecten voor klanten waarbij televisie en entertainment shows worden gebouwd en aangestuurd. Je werk zal dus door een miljoenenpubliek worden bekeken!
+    <t xml:space="preserve">Je werkt mee aan de verdere ontwikkeling van onze realtime 3D graphics engine en bijbehorende user interface en aansturing. Daarnaast werk je mee aan projecten voor klanten waarbij televisie en entertainment shows worden gebouwd en aangestuurd. Je werk zal dus door een miljoenenpubliek worden bekeken!_x000D_
+_x000D_
 </t>
   </si>
   <si>
@@ -406,7 +403,7 @@
     <t>Medior .NET Developer voor 32, 36 of 40 uur per week | .NET Core, C#, AngularJS, Entity</t>
   </si>
   <si>
-    <t>Ben je geïnteresseerd in technologie en onderwijs? Wil je graag software ontwikkelen voor onderwijsinstellingen én houd je ervan om dit gezamenlijk met je collega's op te pakken? Dan ben jij de ontwikkelaar die wij zoeken.
+    <t>Ben je geïnteresseerd in technologie en onderwijs? Wil je graag software ontwikkelen voor onderwijsinstellingen én houd je ervan om dit gezamenlijk met je collega's op te pakken? Dan ben jij de ontwikkelaar die wij zoeken._x000D_
 Om de professionalisering van de organisatie verder vorm te geven willen wij in contact komen met kandidaten (m/v) voor de functie van .NET Developer</t>
   </si>
   <si>
@@ -422,7 +419,8 @@
     <t>Principal C#, ASP.NET MVC bij Paralax</t>
   </si>
   <si>
-    <t xml:space="preserve">In de functie als technical lead ben je bezig met het ontwikkelen van nieuwe functionaliteiten. Hiernaast verbeter en onderhoud je de bestaande software. Naast al het ontwikkelwerk is het belangrijk dat je meedenkt aan nieuwe wensen van klanten (intern/extern) of nieuwe mogelijke ontwikkelingen. Ook staan we altijd open voor eigen inbreng. Je werkt samen met teamleden en multidisciplinaire teams binnen de ontwikkelstraat op projectmatige wijze.
+    <t xml:space="preserve">In de functie als technical lead ben je bezig met het ontwikkelen van nieuwe functionaliteiten. Hiernaast verbeter en onderhoud je de bestaande software. Naast al het ontwikkelwerk is het belangrijk dat je meedenkt aan nieuwe wensen van klanten (intern/extern) of nieuwe mogelijke ontwikkelingen. Ook staan we altijd open voor eigen inbreng. Je werkt samen met teamleden en multidisciplinaire teams binnen de ontwikkelstraat op projectmatige wijze._x000D_
+_x000D_
 </t>
   </si>
   <si>
@@ -430,6 +428,114 @@
   </si>
   <si>
     <t>Ja</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>GRONINGEN</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGI </t>
+  </si>
+  <si>
+    <t>Ben jij de ervaren software developer die graag regionaal wil werken aan landelijke en internationale innovatieve oplossingen?</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-software-engineer-bij-cgi</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=software-developer-bij-cgi-2</t>
+  </si>
+  <si>
+    <t>Axual</t>
+  </si>
+  <si>
+    <t>Medior</t>
+  </si>
+  <si>
+    <t>Medior Software Engineer at Axual | Java, Scala, Apache Kafka, Spring</t>
+  </si>
+  <si>
+    <t>Are you the software engineer that makes our customer's data dreams come true?</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-software-engineer-at-axual--java-scala-apache-kafka-spring-bij-</t>
+  </si>
+  <si>
+    <t>Bottomline</t>
+  </si>
+  <si>
+    <t>Medior Developer in Utrecht | VB.NET, ASP.NET, Java Spring</t>
+  </si>
+  <si>
+    <t>Zit je vol ambitie en wil je de mogelijkheid krijgen om met de nieuwste tools en technieken de beste software neer te zetten? Bottomline is op zoek naar een ervaren Java / VB.NET ontwikkelaar in de regio Utrecht die onze software met zijn/haar kennis naar een hoger niveau weet te tillen! Ben jij de expert die wij zoeken?</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-developer-in-utrecht--vbnet-aspnet-java-spring-bij-bottomline</t>
+  </si>
+  <si>
+    <t>Medior Backend Java  Developer | Hibernate, JPA, Spring MVC, Oracle</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-java-developer--hibernate-jpa-spring-mvc-oracle-bij-dpa-geos-2</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Junior Developer in Utrecht | VB.NET, ASP.NET, Java Spring</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=junior-developer-in-utrecht--vbnet-aspnet-java-spring-bij-bottomline</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Agile Test Specialist bij Bartosz  </t>
+  </si>
+  <si>
+    <t>Heb jij 'hard skills with a soft touch'? Wij zijn per direct op zoek naar agile test specialisten!</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=senior-agile-test-specialist-bij-bartosz-bij-bartosz-rotterdam</t>
+  </si>
+  <si>
+    <t>Sofico</t>
+  </si>
+  <si>
+    <t>HOUTEN</t>
+  </si>
+  <si>
+    <t>Junior Java Developer in automotive-sector | MS SQL, Oracle, JSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vind je het leuk om als Java developer voor de automotive-sector te werken? Kom dan werken bij Sofico! </t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=junior-java-developer-in-automotive-sector--ms-sql-oracle-jsp</t>
+  </si>
+  <si>
+    <t>Startende Developer met interesse in IOT bij Dexels in Amsterdam</t>
+  </si>
+  <si>
+    <t>Als startende Developer met interesse in IOT bij Dexels krijg je ondersteuning van onze Senior sportlink Developers in de dagelijkse taken van het tackelen van RFC's, bugs en het tot een goed einde brengen van complete software projecten.</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=startende-developer-met-interesse-in-iot-bij-dexels-in-amsterdam-bij-d</t>
+  </si>
+  <si>
+    <t>Medior Java Developer bij Meddex</t>
+  </si>
+  <si>
+    <t>Trek jij ons Development Team op een hoger niveau en weet jij mensen te motiveren tot goede samenwerking en eigenaarschap van het totaalproduct?</t>
+  </si>
+  <si>
+    <t>https://www.jouwictvacature.nl/solliciteren?job=medior-java-developer-bij-meddex-bij-meddex</t>
   </si>
 </sst>
 </file>
@@ -753,10 +859,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="102" zoomScaleNormal="226">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -766,15 +872,16 @@
     <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="20.86328125"/>
     <col customWidth="1" max="4" min="4" style="1" width="13.86328125"/>
     <col customWidth="1" max="5" min="5" style="1" width="9"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="58.59765625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="10.1328125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="10.19921875"/>
-    <col customWidth="1" max="9" min="9" style="1" width="100.19921875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="78.19921875"/>
-    <col customWidth="1" max="11" min="11" style="1" width="12.19921875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="15.59765625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="1" width="58.59765625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="10.1328125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="1" width="10.19921875"/>
+    <col customWidth="1" max="10" min="10" style="1" width="100.19921875"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="1" width="78.19921875"/>
+    <col customWidth="1" max="12" min="12" style="1" width="12.19921875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -805,24 +912,24 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
@@ -837,905 +944,943 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4" t="n">
         <v>43120</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
         <v>87</v>
       </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
       <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="5" t="n">
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="5" t="n">
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5" t="n">
+      <c r="K23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="5" t="n">
+      <c r="K24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
         <v>107</v>
       </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
       <c r="H25" t="s">
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="5" t="n">
+      <c r="K25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
       <c r="H26" t="s">
         <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="5" t="n">
+      <c r="K26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="5" t="n">
+      <c r="K27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5" t="n">
+      <c r="K28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="5" t="n">
+      <c r="K29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="4" t="n">
         <v>43121</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s">
         <v>129</v>
       </c>
+      <c r="K30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="5" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K19"/>
+  <autoFilter ref="A1:L30"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -1757,12 +1902,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
